--- a/Proyecto/Paginas/Matriz (4).xlsx
+++ b/Proyecto/Paginas/Matriz (4).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Test ID</t>
   </si>
@@ -117,12 +117,6 @@
 1.Cuenta inactiva.</t>
   </si>
   <si>
-    <t>1.Entrar a la pagina principal.
-2.Presionar "Login".
-3.Escribir usuario y contraseña no activos.
-4.Presionar "Enviar".</t>
-  </si>
-  <si>
     <t>Acceso a la pagina principal.</t>
   </si>
   <si>
@@ -138,12 +132,6 @@
   </si>
   <si>
     <t>PPDN-007</t>
-  </si>
-  <si>
-    <t>1.Cuadro de texto para Usuario</t>
-  </si>
-  <si>
-    <t>2.Cuadro de contraseña para ingresar la contraseña</t>
   </si>
   <si>
     <t>1.Entrar a la pagina principal.
@@ -195,17 +183,6 @@
     <t>Acceso a la pagina principal</t>
   </si>
   <si>
-    <t>1.Se resaltan las imágenes al pasar el cursor arriba.</t>
-  </si>
-  <si>
-    <t>1. Se resalta a un tono mas claro.
-2.Poder escribir un texto en el campo.</t>
-  </si>
-  <si>
-    <t>1.Se resalta a un tono mas claro.
-2.Cambia el texto a asteriscos.</t>
-  </si>
-  <si>
     <t>PPDN-010</t>
   </si>
   <si>
@@ -248,22 +225,143 @@
 2.Presionar el logotipo </t>
   </si>
   <si>
-    <t>1.Regresar a la pagina principal</t>
-  </si>
-  <si>
-    <t>1.Mandar a la seccion de Clima</t>
-  </si>
-  <si>
-    <t>1.Mandar a la seccion de Deportes</t>
-  </si>
-  <si>
-    <t>1.Mandar a la seccion de Espectaculos</t>
-  </si>
-  <si>
-    <t>1.Mandar a la seccion de Tecnologia</t>
-  </si>
-  <si>
-    <t>1.Mandar a la seccion de Informacion sobre covid-19</t>
+    <t>PPDN-015</t>
+  </si>
+  <si>
+    <t>PPDN-016</t>
+  </si>
+  <si>
+    <t>PPDN-017</t>
+  </si>
+  <si>
+    <t>Validar seccion 
+de contactanos</t>
+  </si>
+  <si>
+    <t>Validar hipervinvulos de redes sociales</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal
+2.Presionar el logo de Faceboook</t>
+  </si>
+  <si>
+    <t>PPDN-018</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal
+2.Presionar el logo de GitHub</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal
+2.Escribir un texto en el campo "Nombre".</t>
+  </si>
+  <si>
+    <t>PPDN-019</t>
+  </si>
+  <si>
+    <t>PPDN-020</t>
+  </si>
+  <si>
+    <t>PPDN-021</t>
+  </si>
+  <si>
+    <t>Validar boton "Enviar"</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal
+2.Escribir un texto en el campo "Email".</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal
+2.Escribir un texto en el campo "Comentario".</t>
+  </si>
+  <si>
+    <t>Mandar a la seccion de Clima</t>
+  </si>
+  <si>
+    <t>Mandar a la seccion de Deportes</t>
+  </si>
+  <si>
+    <t>Mandar a la seccion de Espectaculos</t>
+  </si>
+  <si>
+    <t>Mandar a la seccion de Tecnologia</t>
+  </si>
+  <si>
+    <t>Mandar a la seccion de Informacion sobre covid-19</t>
+  </si>
+  <si>
+    <t>Regresar a la pagina principal</t>
+  </si>
+  <si>
+    <t>Se muestra lo suguiente:
+1. Se resalta a un tono mas claro.
+2.Poder escribir un texto en el campo.</t>
+  </si>
+  <si>
+    <t>Se muestra lo suguiente:
+1.Se resalta a un tono mas claro.
+2.Cambia el texto a asteriscos.</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal.
+2.Presionar "Login".
+3.Escribir usuario y contraseña no validos.
+4.Presionar "Enviar".</t>
+  </si>
+  <si>
+    <t>Se muestra una ventana de alerta con el siguiente texto: "Usuario o contraseña incorrecto"</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal.
+2.Llenar los requisitos.
+3.Presionar "Enviar".</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal.
+2.Presionar el logo de whatsapp.</t>
+  </si>
+  <si>
+    <t>Se muestra el nombre del usuario</t>
+  </si>
+  <si>
+    <t>Se resaltan las imágenes al pasar el cursor arriba.</t>
+  </si>
+  <si>
+    <t>Manda a la pagina
+de facebook</t>
+  </si>
+  <si>
+    <t>Manda a la pagina
+de whatsapp</t>
+  </si>
+  <si>
+    <t>Manda a la pagina
+de GitHub</t>
+  </si>
+  <si>
+    <t>Se muestra el texto 
+escrito</t>
+  </si>
+  <si>
+    <t>Se muestra el texto 
+escrito como un objeto en la consola.</t>
+  </si>
+  <si>
+    <t>PPDN-022</t>
+  </si>
+  <si>
+    <t>Validar boton "Atras"
+ de login</t>
+  </si>
+  <si>
+    <t>1.Entrar a la pagina principal.
+2.Presionr Login.
+3.Presionar "Atras"</t>
+  </si>
+  <si>
+    <t>Se cierra el formulario 
+de login</t>
   </si>
 </sst>
 </file>
@@ -305,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +412,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,15 +751,15 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -675,14 +779,14 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -701,14 +805,14 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
@@ -727,14 +831,14 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>65</v>
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
@@ -753,14 +857,14 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -779,14 +883,14 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>67</v>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
@@ -797,22 +901,22 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
@@ -823,74 +927,74 @@
     </row>
     <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
+      <c r="F11" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
@@ -901,7 +1005,7 @@
     </row>
     <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -909,14 +1013,14 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
+      <c r="F12" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
@@ -927,7 +1031,7 @@
     </row>
     <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -935,163 +1039,284 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="E14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="A24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
